--- a/data/CreateNewDO.xlsx
+++ b/data/CreateNewDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Personal\Dibiz\Automation\DibizAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DCED9-8B7A-4254-AD4A-300445E9FF91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9D71D4-2AE9-47B3-8A3D-382B673E6CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CreateNewDO.xlsx
+++ b/data/CreateNewDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Personal\Dibiz\Automation\DibizAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9D71D4-2AE9-47B3-8A3D-382B673E6CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15875E1-35DB-4B46-9ED9-F97759A20A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C1" sqref="C1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
